--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/explicit-dimensions-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/explicit-dimensions-2018-1.xlsx
@@ -17,11 +17,35 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,10 +76,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -76,89 +104,89 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="12" max="12" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="13" max="13" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="14" max="14" bestFit="1" customWidth="1" width="18.700000000000003"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="11" max="11" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="12" max="12" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="13" max="13" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="14" max="14" bestFit="1" customWidth="1" width="28.049999999999997"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>INFORMATIONDOMAIN</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>LANGUAGECODE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>DEFAULTCODE</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CODESSHEET</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>EXTENSIONSSHEET</t>
         </is>
@@ -167,7 +195,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>183031f5-9d06-4c40-b1d4-2e9aca9f4a37</t>
+          <t>45754185-b964-4112-8fc4-f6d69a1fe881</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -236,65 +264,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="9.9"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="18.700000000000003"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>BROADER</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
@@ -303,7 +331,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>08382a4b-09fc-4a82-af60-5dade1ba5788</t>
+          <t>9ccf955b-cc12-419c-b039-0ef4e279fef3</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -339,7 +367,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>3c2c64cb-77ec-44f6-816d-9cb8cb457dca</t>
+          <t>08172017-95dc-4e6c-b07e-fae9c695c8a8</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -375,7 +403,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>096bc982-e307-4cbf-a7b8-e1782d98bc7d</t>
+          <t>8627d6d9-4270-48ac-ab09-6796331e763c</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -411,7 +439,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>126ae1ff-9a38-4edd-8068-251442024fc3</t>
+          <t>e9f3e1a7-38eb-42c8-bea8-dc7b359730a7</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -465,58 +493,58 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="31.900000000000002"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="19.8"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>PROPERTYTYPE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>MEMBERSSHEET</t>
         </is>
@@ -525,7 +553,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>673acdcb-bd28-4db8-8ed7-4af02cd48b8e</t>
+          <t>4bd7767a-8afd-4317-b401-dc4dba7c4eb8</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -573,23 +601,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="31.900000000000002"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="20.900000000000002"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="31.349999999999998"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>DPMDOMAINREFERENCE</t>
         </is>
@@ -598,7 +626,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>ff7e60db-8ec2-41a4-b575-5fa58f059cc6</t>
+          <t>c2d9797f-ae43-4531-ac94-321a70a2739c</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -615,7 +643,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>9a4fabaa-871f-4c96-a07d-75be78cce2fa</t>
+          <t>1ca3c132-e5f3-428b-85db-2379580931b2</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -632,7 +660,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>daa3b8a0-c7c2-4f72-afe8-88ad392b9c5b</t>
+          <t>03efa971-0985-465b-ae41-1322c7bf6e87</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -649,7 +677,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>66de8c48-79c8-4721-a078-0dce2f3619a4</t>
+          <t>0571eb0a-fb93-4d12-a97a-1e3fabac269a</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">

--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/explicit-dimensions-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/explicit-dimensions-2018-1.xlsx
@@ -195,7 +195,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>45754185-b964-4112-8fc4-f6d69a1fe881</t>
+          <t>ea439bf8-4eec-4df5-916a-90b144e1d58b</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -264,7 +264,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
@@ -331,7 +331,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>9ccf955b-cc12-419c-b039-0ef4e279fef3</t>
+          <t>b042fb98-44f3-41b4-b033-8ad4e766bcf4</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -367,7 +367,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>08172017-95dc-4e6c-b07e-fae9c695c8a8</t>
+          <t>2bcedb0f-6fe3-41d8-a887-c53337b9ce71</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -403,7 +403,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>8627d6d9-4270-48ac-ab09-6796331e763c</t>
+          <t>63cd4d2e-cdde-4abb-ae29-6f575b4addbc</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -439,7 +439,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>e9f3e1a7-38eb-42c8-bea8-dc7b359730a7</t>
+          <t>c6334b1d-c45e-42e8-9bd9-984576e388bc</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -492,7 +492,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="31.900000000000002"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="29.700000000000003"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
@@ -553,7 +553,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>4bd7767a-8afd-4317-b401-dc4dba7c4eb8</t>
+          <t>61cd9133-85bf-49df-a4cc-b02f4b7e0cd4</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -601,7 +601,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="31.349999999999998"/>
   </cols>
@@ -626,7 +626,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>c2d9797f-ae43-4531-ac94-321a70a2739c</t>
+          <t>e363b4d7-504f-4a4b-bed6-41bdb1f03659</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -643,7 +643,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>1ca3c132-e5f3-428b-85db-2379580931b2</t>
+          <t>b03d2cd4-4416-429a-bdaa-e661f7241d30</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>03efa971-0985-465b-ae41-1322c7bf6e87</t>
+          <t>7e27e7ca-9ca2-401a-9955-40eea1d8c443</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -677,7 +677,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>0571eb0a-fb93-4d12-a97a-1e3fabac269a</t>
+          <t>735c9b13-795a-4328-bba3-7d2b15832476</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">

--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/explicit-dimensions-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/explicit-dimensions-2018-1.xlsx
@@ -104,7 +104,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
@@ -195,7 +195,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>ea439bf8-4eec-4df5-916a-90b144e1d58b</t>
+          <t>118994a9-490d-4be6-b633-9f10b2bbade7</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -264,7 +264,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="36.300000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
@@ -331,7 +331,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>b042fb98-44f3-41b4-b033-8ad4e766bcf4</t>
+          <t>3ea54723-d700-4353-98bc-9ec43e7bdfa8</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -367,7 +367,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2bcedb0f-6fe3-41d8-a887-c53337b9ce71</t>
+          <t>9604a336-d57d-442e-813e-988e468d2cf5</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -403,7 +403,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>63cd4d2e-cdde-4abb-ae29-6f575b4addbc</t>
+          <t>5d7d2f24-6986-45ce-8ed7-660442997643</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -439,7 +439,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>c6334b1d-c45e-42e8-9bd9-984576e388bc</t>
+          <t>13da0734-aaf7-426e-9a8d-c8bc102481c4</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -492,7 +492,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="29.700000000000003"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
@@ -553,7 +553,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>61cd9133-85bf-49df-a4cc-b02f4b7e0cd4</t>
+          <t>f8a7f79f-6911-4d63-a67a-9fe965313589</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -601,7 +601,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="37.400000000000006"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="31.349999999999998"/>
   </cols>
@@ -626,7 +626,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>e363b4d7-504f-4a4b-bed6-41bdb1f03659</t>
+          <t>5a9ded96-61b8-4dc3-a828-97ac0f6f4beb</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -643,7 +643,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>b03d2cd4-4416-429a-bdaa-e661f7241d30</t>
+          <t>50143856-02db-4477-a426-652b05570b31</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>7e27e7ca-9ca2-401a-9955-40eea1d8c443</t>
+          <t>d4afff24-eea7-496d-85b8-87ac72ece51d</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -677,7 +677,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>735c9b13-795a-4328-bba3-7d2b15832476</t>
+          <t>05bf7dcb-43a9-44f5-bf06-f04c6a5fe152</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
